--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\diwalke\LC\Run_Lists\Sequence_Generator_July25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E16D8-F4A2-4C16-9B02-D5B877EFC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65367C-8C3B-4D48-A2C7-51628999238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="QAQCs" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="4225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="4228">
   <si>
     <t>HRE.p1Std.112020</t>
   </si>
@@ -12688,6 +12688,15 @@
   </si>
   <si>
     <t xml:space="preserve">CLU120_06_250505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU_05_250804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU_01_250804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_02_250804</t>
   </si>
 </sst>
 </file>
@@ -13508,7 +13517,9 @@
       <c r="D36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -13521,7 +13532,9 @@
       <c r="D37" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -14521,7 +14534,9 @@
       <c r="D113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E113"/>
+      <c r="E113" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
@@ -15775,7 +15790,9 @@
       <c r="D209" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E209"/>
+      <c r="E209" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
@@ -17159,7 +17176,9 @@
       <c r="D315" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E315"/>
+      <c r="E315" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
@@ -18378,7 +18397,9 @@
       <c r="D408" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E408"/>
+      <c r="E408" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
@@ -19541,7 +19562,9 @@
       <c r="D497" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E497"/>
+      <c r="E497" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
@@ -20795,7 +20818,9 @@
       <c r="D593" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E593"/>
+      <c r="E593" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
@@ -22049,7 +22074,9 @@
       <c r="D689" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E689"/>
+      <c r="E689" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="s">
@@ -23303,7 +23330,9 @@
       <c r="D785" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E785"/>
+      <c r="E785" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="s">
@@ -24791,7 +24820,9 @@
       <c r="D899" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E899"/>
+      <c r="E899" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="1" t="s">
@@ -24804,7 +24835,9 @@
       <c r="D900" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E900"/>
+      <c r="E900" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="s">
@@ -37746,7 +37779,9 @@
       <c r="D1892" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1892"/>
+      <c r="E1892" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="s">
@@ -37759,7 +37794,9 @@
       <c r="D1893" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1893"/>
+      <c r="E1893" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1894">
       <c r="A1894" t="s">
@@ -37772,7 +37809,9 @@
       <c r="D1894" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1894"/>
+      <c r="E1894" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1895">
       <c r="A1895" t="s">
@@ -37785,7 +37824,9 @@
       <c r="D1895" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1895"/>
+      <c r="E1895" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1896">
       <c r="A1896" t="s">
@@ -37798,7 +37839,9 @@
       <c r="D1896" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1896"/>
+      <c r="E1896" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1897">
       <c r="A1897" t="s">
@@ -37811,7 +37854,9 @@
       <c r="D1897" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1897"/>
+      <c r="E1897" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1898">
       <c r="A1898" t="s">
@@ -37824,7 +37869,9 @@
       <c r="D1898" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1898"/>
+      <c r="E1898" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1899">
       <c r="A1899" t="s">
@@ -37837,7 +37884,9 @@
       <c r="D1899" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1899"/>
+      <c r="E1899" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1900">
       <c r="A1900" t="s">
@@ -38188,7 +38237,9 @@
       <c r="D1926" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1926"/>
+      <c r="E1926" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1927">
       <c r="A1927" t="s">
@@ -38201,7 +38252,9 @@
       <c r="D1927" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1927"/>
+      <c r="E1927" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1928">
       <c r="A1928" t="s">
@@ -38546,7 +38599,9 @@
       <c r="D1952" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1952"/>
+      <c r="E1952" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1953">
       <c r="A1953" t="s">
@@ -38559,7 +38614,9 @@
       <c r="D1953" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1953"/>
+      <c r="E1953" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1954">
       <c r="A1954" t="s">
@@ -38572,7 +38629,9 @@
       <c r="D1954" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1954"/>
+      <c r="E1954" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1955">
       <c r="A1955" t="s">
@@ -38585,7 +38644,9 @@
       <c r="D1955" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1955"/>
+      <c r="E1955" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1956">
       <c r="A1956" t="s">
@@ -38598,7 +38659,9 @@
       <c r="D1956" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1956"/>
+      <c r="E1956" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1957">
       <c r="A1957" t="s">
@@ -38611,7 +38674,9 @@
       <c r="D1957" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1957"/>
+      <c r="E1957" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1958">
       <c r="A1958" t="s">
@@ -38624,7 +38689,9 @@
       <c r="D1958" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1958"/>
+      <c r="E1958" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1959">
       <c r="A1959" t="s">
@@ -38637,7 +38704,9 @@
       <c r="D1959" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1959"/>
+      <c r="E1959" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1960">
       <c r="A1960" t="s">
@@ -39014,7 +39083,9 @@
       <c r="D1988" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1988"/>
+      <c r="E1988" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1989">
       <c r="A1989" t="s">
@@ -39027,7 +39098,9 @@
       <c r="D1989" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1989"/>
+      <c r="E1989" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="1990">
       <c r="A1990" t="s">
@@ -39255,7 +39328,9 @@
       <c r="D2005" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2005"/>
+      <c r="E2005" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="2006">
       <c r="A2006" t="s">
@@ -39359,7 +39434,9 @@
       <c r="D2013" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2013"/>
+      <c r="E2013" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row r="2014">
       <c r="A2014" t="s">

--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="4228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4230">
   <si>
     <t>HRE.p1Std.112020</t>
   </si>
@@ -12697,6 +12697,12 @@
   </si>
   <si>
     <t xml:space="preserve">CLUTEST_02_250804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_22_250805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_07_250805</t>
   </si>
 </sst>
 </file>
@@ -13205,7 +13211,9 @@
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -13218,7 +13226,9 @@
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -13838,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="61">
@@ -13853,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="62">
@@ -14378,7 +14388,9 @@
       <c r="D101" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -14695,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="126">
@@ -15634,7 +15646,9 @@
       <c r="D197" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E197"/>
+      <c r="E197" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
@@ -15951,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="222">
@@ -16929,7 +16943,9 @@
       <c r="D296" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E296"/>
+      <c r="E296" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
@@ -16942,7 +16958,9 @@
       <c r="D297" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E297"/>
+      <c r="E297" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
@@ -17363,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="E329" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="330">
@@ -17393,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="332">
@@ -18150,7 +18168,9 @@
       <c r="D389" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E389"/>
+      <c r="E389" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
@@ -18584,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="423">
@@ -19406,7 +19426,9 @@
       <c r="D485" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E485"/>
+      <c r="E485" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
@@ -19723,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="E509" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="510">
@@ -20662,7 +20684,9 @@
       <c r="D581" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E581"/>
+      <c r="E581" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
@@ -20979,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="E605" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="606">
@@ -21918,7 +21942,9 @@
       <c r="D677" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E677"/>
+      <c r="E677" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="s">
@@ -22235,7 +22261,7 @@
         <v>0</v>
       </c>
       <c r="E701" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="702">
@@ -23174,7 +23200,9 @@
       <c r="D773" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E773"/>
+      <c r="E773" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="s">
@@ -23491,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="E797" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="798">
@@ -24469,7 +24497,9 @@
       <c r="D872" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E872"/>
+      <c r="E872" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="s">
@@ -24482,7 +24512,9 @@
       <c r="D873" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E873"/>
+      <c r="E873" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="s">
@@ -25126,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="923">
@@ -25156,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="925">
@@ -28112,7 +28144,9 @@
       <c r="D1151" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1151"/>
+      <c r="E1151" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="1" t="s">
@@ -28125,7 +28159,9 @@
       <c r="D1152" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1152"/>
+      <c r="E1152" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="1" t="s">
@@ -28138,7 +28174,9 @@
       <c r="D1153" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1153"/>
+      <c r="E1153" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="1" t="s">
@@ -28151,7 +28189,9 @@
       <c r="D1154" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1154"/>
+      <c r="E1154" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="1" t="s">
@@ -28164,7 +28204,9 @@
       <c r="D1155" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1155"/>
+      <c r="E1155" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="1" t="s">
@@ -28177,7 +28219,9 @@
       <c r="D1156" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1156"/>
+      <c r="E1156" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="1" t="s">
@@ -28190,7 +28234,9 @@
       <c r="D1157" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1157"/>
+      <c r="E1157" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="1" t="s">
@@ -28203,7 +28249,9 @@
       <c r="D1158" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1158"/>
+      <c r="E1158" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="1" t="s">
@@ -28216,7 +28264,9 @@
       <c r="D1159" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1159"/>
+      <c r="E1159" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="1" t="s">
@@ -28229,7 +28279,9 @@
       <c r="D1160" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1160"/>
+      <c r="E1160" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="1" t="s">
@@ -30895,7 +30947,9 @@
       <c r="D1364" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1364"/>
+      <c r="E1364" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="1" t="s">
@@ -30908,7 +30962,9 @@
       <c r="D1365" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1365"/>
+      <c r="E1365" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="1" t="s">
@@ -30921,7 +30977,9 @@
       <c r="D1366" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1366"/>
+      <c r="E1366" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="1" t="s">
@@ -30934,7 +30992,9 @@
       <c r="D1367" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1367"/>
+      <c r="E1367" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="1" t="s">
@@ -30947,7 +31007,9 @@
       <c r="D1368" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1368"/>
+      <c r="E1368" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="1" t="s">
@@ -30960,7 +31022,9 @@
       <c r="D1369" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1369"/>
+      <c r="E1369" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="1" t="s">
@@ -30973,7 +31037,9 @@
       <c r="D1370" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1370"/>
+      <c r="E1370" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="1" t="s">
@@ -30986,7 +31052,9 @@
       <c r="D1371" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1371"/>
+      <c r="E1371" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="1" t="s">
@@ -30999,7 +31067,9 @@
       <c r="D1372" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1372"/>
+      <c r="E1372" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="1" t="s">
@@ -31012,7 +31082,9 @@
       <c r="D1373" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1373"/>
+      <c r="E1373" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="1" t="s">
@@ -33366,7 +33438,9 @@
       <c r="D1553" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1553"/>
+      <c r="E1553" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="1" t="s">
@@ -33629,7 +33703,7 @@
         <v>0</v>
       </c>
       <c r="E1573" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1574">
@@ -36427,7 +36501,9 @@
       <c r="D1788" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1788"/>
+      <c r="E1788" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="1" t="s">
@@ -36440,7 +36516,9 @@
       <c r="D1789" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1789"/>
+      <c r="E1789" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="1" t="s">
@@ -36453,7 +36531,9 @@
       <c r="D1790" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1790"/>
+      <c r="E1790" t="s">
+        <v>4229</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="1" t="s">
@@ -38346,7 +38426,7 @@
         <v>0</v>
       </c>
       <c r="E1934" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1935">
@@ -38361,7 +38441,7 @@
         <v>0</v>
       </c>
       <c r="E1935" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1936">
@@ -38376,7 +38456,7 @@
         <v>0</v>
       </c>
       <c r="E1936" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1937">
@@ -38391,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="E1937" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1938">
@@ -38406,7 +38486,7 @@
         <v>0</v>
       </c>
       <c r="E1938" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1939">
@@ -38421,7 +38501,7 @@
         <v>0</v>
       </c>
       <c r="E1939" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1940">
@@ -38436,7 +38516,7 @@
         <v>0</v>
       </c>
       <c r="E1940" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1941">
@@ -38451,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="E1941" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1942">
@@ -38466,7 +38546,7 @@
         <v>0</v>
       </c>
       <c r="E1942" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1943">
@@ -38481,7 +38561,7 @@
         <v>0</v>
       </c>
       <c r="E1943" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1944">
@@ -39140,7 +39220,7 @@
         <v>0</v>
       </c>
       <c r="E1992" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1993">
@@ -39155,7 +39235,7 @@
         <v>0</v>
       </c>
       <c r="E1993" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1994">
@@ -39170,7 +39250,7 @@
         <v>0</v>
       </c>
       <c r="E1994" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1995">
@@ -39185,7 +39265,7 @@
         <v>0</v>
       </c>
       <c r="E1995" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1996">
@@ -39200,7 +39280,7 @@
         <v>0</v>
       </c>
       <c r="E1996" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1997">
@@ -39215,7 +39295,7 @@
         <v>0</v>
       </c>
       <c r="E1997" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1998">
@@ -39256,7 +39336,7 @@
         <v>0</v>
       </c>
       <c r="E2000" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="2001">
@@ -39271,7 +39351,7 @@
         <v>0</v>
       </c>
       <c r="E2001" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="2002">
@@ -39286,7 +39366,7 @@
         <v>0</v>
       </c>
       <c r="E2002" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="2003">
@@ -39301,7 +39381,7 @@
         <v>0</v>
       </c>
       <c r="E2003" t="s">
-        <v>2195</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="2004">

--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="4231">
   <si>
     <t>HRE.p1Std.112020</t>
   </si>
@@ -12703,6 +12703,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLUTEST_07_250805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_03_250807</t>
   </si>
 </sst>
 </file>
@@ -13557,7 +13560,9 @@
       <c r="D38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -13570,7 +13575,9 @@
       <c r="D39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -14561,7 +14568,9 @@
       <c r="D114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E114"/>
+      <c r="E114" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
@@ -15819,7 +15828,9 @@
       <c r="D210" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E210"/>
+      <c r="E210" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
@@ -17209,7 +17220,9 @@
       <c r="D316" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E316"/>
+      <c r="E316" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
@@ -18378,7 +18391,9 @@
       <c r="D405" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E405"/>
+      <c r="E405" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
@@ -19599,7 +19614,9 @@
       <c r="D498" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E498"/>
+      <c r="E498" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
@@ -20857,7 +20874,9 @@
       <c r="D594" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E594"/>
+      <c r="E594" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
@@ -22115,7 +22134,9 @@
       <c r="D690" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E690"/>
+      <c r="E690" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="s">
@@ -23373,7 +23394,9 @@
       <c r="D786" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E786"/>
+      <c r="E786" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="s">
@@ -24882,7 +24905,9 @@
       <c r="D901" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E901"/>
+      <c r="E901" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="1" t="s">
@@ -24895,7 +24920,9 @@
       <c r="D902" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E902"/>
+      <c r="E902" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="1" t="s">
@@ -33596,7 +33623,9 @@
       <c r="D1565" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1565"/>
+      <c r="E1565" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="1" t="s">
@@ -37979,7 +38008,9 @@
       <c r="D1900" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1900"/>
+      <c r="E1900" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="s">
@@ -37992,7 +38023,9 @@
       <c r="D1901" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1901"/>
+      <c r="E1901" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1902">
       <c r="A1902" t="s">
@@ -38005,7 +38038,9 @@
       <c r="D1902" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1902"/>
+      <c r="E1902" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1903">
       <c r="A1903" t="s">
@@ -38018,7 +38053,9 @@
       <c r="D1903" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1903"/>
+      <c r="E1903" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1904">
       <c r="A1904" t="s">
@@ -38031,7 +38068,9 @@
       <c r="D1904" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1904"/>
+      <c r="E1904" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1905">
       <c r="A1905" t="s">
@@ -38044,7 +38083,9 @@
       <c r="D1905" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1905"/>
+      <c r="E1905" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1906">
       <c r="A1906" t="s">
@@ -38057,7 +38098,9 @@
       <c r="D1906" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1906"/>
+      <c r="E1906" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1907">
       <c r="A1907" t="s">
@@ -38070,7 +38113,9 @@
       <c r="D1907" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1907"/>
+      <c r="E1907" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1908">
       <c r="A1908" t="s">
@@ -38347,7 +38392,9 @@
       <c r="D1928" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1928"/>
+      <c r="E1928" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1929">
       <c r="A1929" t="s">
@@ -38360,7 +38407,9 @@
       <c r="D1929" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1929"/>
+      <c r="E1929" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1930">
       <c r="A1930" t="s">
@@ -38799,7 +38848,9 @@
       <c r="D1960" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1960"/>
+      <c r="E1960" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="s">
@@ -38812,7 +38863,9 @@
       <c r="D1961" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1961"/>
+      <c r="E1961" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1962">
       <c r="A1962" t="s">
@@ -38825,7 +38878,9 @@
       <c r="D1962" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1962"/>
+      <c r="E1962" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1963">
       <c r="A1963" t="s">
@@ -38838,7 +38893,9 @@
       <c r="D1963" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1963"/>
+      <c r="E1963" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1964">
       <c r="A1964" t="s">
@@ -38851,7 +38908,9 @@
       <c r="D1964" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1964"/>
+      <c r="E1964" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="s">
@@ -38864,7 +38923,9 @@
       <c r="D1965" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1965"/>
+      <c r="E1965" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="s">
@@ -38877,7 +38938,9 @@
       <c r="D1966" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1966"/>
+      <c r="E1966" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1967">
       <c r="A1967" t="s">
@@ -38890,7 +38953,9 @@
       <c r="D1967" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1967"/>
+      <c r="E1967" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1968">
       <c r="A1968" t="s">
@@ -39137,7 +39202,9 @@
       <c r="D1986" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1986"/>
+      <c r="E1986" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1987">
       <c r="A1987" t="s">
@@ -39150,7 +39217,9 @@
       <c r="D1987" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1987"/>
+      <c r="E1987" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="1988">
       <c r="A1988" t="s">
@@ -39423,7 +39492,9 @@
       <c r="D2006" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2006"/>
+      <c r="E2006" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="2007">
       <c r="A2007" t="s">
@@ -39529,7 +39600,9 @@
       <c r="D2014" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2014"/>
+      <c r="E2014" t="s">
+        <v>4230</v>
+      </c>
     </row>
     <row r="2015">
       <c r="A2015" t="s">

--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="4231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="4232">
   <si>
     <t>HRE.p1Std.112020</t>
   </si>
@@ -12706,6 +12706,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLUTEST_03_250807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_04_250808</t>
   </si>
 </sst>
 </file>
@@ -13561,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="39">
@@ -13576,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="40">
@@ -13616,7 +13619,9 @@
       <c r="D42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -13629,7 +13634,9 @@
       <c r="D43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -14569,7 +14576,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="115">
@@ -14596,7 +14603,9 @@
       <c r="D116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E116"/>
+      <c r="E116" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
@@ -15829,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="211">
@@ -15856,7 +15865,9 @@
       <c r="D212" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E212"/>
+      <c r="E212" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
@@ -17221,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="317">
@@ -17248,7 +17259,9 @@
       <c r="D318" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E318"/>
+      <c r="E318" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
@@ -18392,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="406">
@@ -18419,7 +18432,9 @@
       <c r="D407" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E407"/>
+      <c r="E407" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
@@ -19615,7 +19630,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="499">
@@ -19642,7 +19657,9 @@
       <c r="D500" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E500"/>
+      <c r="E500" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
@@ -20875,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="595">
@@ -20902,7 +20919,9 @@
       <c r="D596" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E596"/>
+      <c r="E596" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
@@ -22135,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="691">
@@ -22162,7 +22181,9 @@
       <c r="D692" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E692"/>
+      <c r="E692" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="s">
@@ -23395,7 +23416,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="787">
@@ -23422,7 +23443,9 @@
       <c r="D788" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E788"/>
+      <c r="E788" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="s">
@@ -24906,7 +24929,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="902">
@@ -24921,7 +24944,7 @@
         <v>1</v>
       </c>
       <c r="E902" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="903">
@@ -24961,7 +24984,9 @@
       <c r="D905" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E905"/>
+      <c r="E905" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="1" t="s">
@@ -24974,7 +24999,9 @@
       <c r="D906" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E906"/>
+      <c r="E906" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="1" t="s">
@@ -33624,7 +33651,7 @@
         <v>1</v>
       </c>
       <c r="E1565" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1566">
@@ -38009,7 +38036,7 @@
         <v>1</v>
       </c>
       <c r="E1900" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1901">
@@ -38024,7 +38051,7 @@
         <v>1</v>
       </c>
       <c r="E1901" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1902">
@@ -38039,7 +38066,7 @@
         <v>1</v>
       </c>
       <c r="E1902" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1903">
@@ -38054,7 +38081,7 @@
         <v>1</v>
       </c>
       <c r="E1903" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1904">
@@ -38069,7 +38096,7 @@
         <v>1</v>
       </c>
       <c r="E1904" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1905">
@@ -38084,7 +38111,7 @@
         <v>1</v>
       </c>
       <c r="E1905" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1906">
@@ -38099,7 +38126,7 @@
         <v>1</v>
       </c>
       <c r="E1906" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1907">
@@ -38114,7 +38141,7 @@
         <v>1</v>
       </c>
       <c r="E1907" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1908">
@@ -38232,7 +38259,9 @@
       <c r="D1916" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1916"/>
+      <c r="E1916" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1917">
       <c r="A1917" t="s">
@@ -38245,7 +38274,9 @@
       <c r="D1917" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1917"/>
+      <c r="E1917" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1918">
       <c r="A1918" t="s">
@@ -38258,7 +38289,9 @@
       <c r="D1918" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1918"/>
+      <c r="E1918" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1919">
       <c r="A1919" t="s">
@@ -38271,7 +38304,9 @@
       <c r="D1919" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1919"/>
+      <c r="E1919" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1920">
       <c r="A1920" t="s">
@@ -38284,7 +38319,9 @@
       <c r="D1920" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1920"/>
+      <c r="E1920" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1921">
       <c r="A1921" t="s">
@@ -38297,7 +38334,9 @@
       <c r="D1921" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1921"/>
+      <c r="E1921" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1922">
       <c r="A1922" t="s">
@@ -38310,7 +38349,9 @@
       <c r="D1922" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1922"/>
+      <c r="E1922" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1923">
       <c r="A1923" t="s">
@@ -38323,7 +38364,9 @@
       <c r="D1923" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1923"/>
+      <c r="E1923" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1924">
       <c r="A1924" t="s">
@@ -38393,7 +38436,7 @@
         <v>1</v>
       </c>
       <c r="E1928" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1929">
@@ -38408,7 +38451,7 @@
         <v>1</v>
       </c>
       <c r="E1929" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1930">
@@ -38448,7 +38491,9 @@
       <c r="D1932" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1932"/>
+      <c r="E1932" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1933">
       <c r="A1933" t="s">
@@ -38461,7 +38506,9 @@
       <c r="D1933" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1933"/>
+      <c r="E1933" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1934">
       <c r="A1934" t="s">
@@ -38849,7 +38896,7 @@
         <v>1</v>
       </c>
       <c r="E1960" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1961">
@@ -38864,7 +38911,7 @@
         <v>1</v>
       </c>
       <c r="E1961" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1962">
@@ -38879,7 +38926,7 @@
         <v>1</v>
       </c>
       <c r="E1962" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1963">
@@ -38894,7 +38941,7 @@
         <v>1</v>
       </c>
       <c r="E1963" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1964">
@@ -38909,7 +38956,7 @@
         <v>1</v>
       </c>
       <c r="E1964" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1965">
@@ -38924,7 +38971,7 @@
         <v>1</v>
       </c>
       <c r="E1965" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1966">
@@ -38939,7 +38986,7 @@
         <v>1</v>
       </c>
       <c r="E1966" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1967">
@@ -38954,7 +39001,7 @@
         <v>1</v>
       </c>
       <c r="E1967" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1968">
@@ -39072,7 +39119,9 @@
       <c r="D1976" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1976"/>
+      <c r="E1976" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1977">
       <c r="A1977" t="s">
@@ -39085,7 +39134,9 @@
       <c r="D1977" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1977"/>
+      <c r="E1977" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1978">
       <c r="A1978" t="s">
@@ -39098,7 +39149,9 @@
       <c r="D1978" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1978"/>
+      <c r="E1978" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1979">
       <c r="A1979" t="s">
@@ -39111,7 +39164,9 @@
       <c r="D1979" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1979"/>
+      <c r="E1979" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1980">
       <c r="A1980" t="s">
@@ -39124,7 +39179,9 @@
       <c r="D1980" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1980"/>
+      <c r="E1980" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1981">
       <c r="A1981" t="s">
@@ -39137,7 +39194,9 @@
       <c r="D1981" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1981"/>
+      <c r="E1981" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1982">
       <c r="A1982" t="s">
@@ -39150,7 +39209,9 @@
       <c r="D1982" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1982"/>
+      <c r="E1982" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="s">
@@ -39163,7 +39224,9 @@
       <c r="D1983" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1983"/>
+      <c r="E1983" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1984">
       <c r="A1984" t="s">
@@ -39203,7 +39266,7 @@
         <v>1</v>
       </c>
       <c r="E1986" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1987">
@@ -39218,7 +39281,7 @@
         <v>1</v>
       </c>
       <c r="E1987" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1988">
@@ -39378,7 +39441,9 @@
       <c r="D1998" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1998"/>
+      <c r="E1998" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="1999">
       <c r="A1999" t="s">
@@ -39391,7 +39456,9 @@
       <c r="D1999" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E1999"/>
+      <c r="E1999" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="s">
@@ -39493,7 +39560,7 @@
         <v>1</v>
       </c>
       <c r="E2006" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="2007">
@@ -39520,7 +39587,9 @@
       <c r="D2008" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2008"/>
+      <c r="E2008" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="2009">
       <c r="A2009" t="s">
@@ -39601,7 +39670,7 @@
         <v>1</v>
       </c>
       <c r="E2014" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="2015">
@@ -39628,7 +39697,9 @@
       <c r="D2016" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2016"/>
+      <c r="E2016" t="s">
+        <v>4231</v>
+      </c>
     </row>
     <row r="2017">
       <c r="A2017" t="s">

--- a/QAQCS.xlsx
+++ b/QAQCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="4232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="4233">
   <si>
     <t>HRE.p1Std.112020</t>
   </si>
@@ -12709,6 +12709,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLUTEST_04_250808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUTEST_03_250813</t>
   </si>
 </sst>
 </file>
@@ -13564,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="39">
@@ -13579,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="40">
@@ -14576,7 +14579,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="115">
@@ -15838,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="211">
@@ -17232,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="317">
@@ -18405,7 +18408,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="406">
@@ -19630,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="499">
@@ -20892,7 +20895,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="595">
@@ -22154,7 +22157,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="691">
@@ -23416,7 +23419,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="787">
@@ -24929,7 +24932,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="902">
@@ -24944,7 +24947,7 @@
         <v>1</v>
       </c>
       <c r="E902" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="903">
@@ -33651,7 +33654,7 @@
         <v>1</v>
       </c>
       <c r="E1565" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1566">
@@ -38036,7 +38039,7 @@
         <v>1</v>
       </c>
       <c r="E1900" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1901">
@@ -38051,7 +38054,7 @@
         <v>1</v>
       </c>
       <c r="E1901" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1902">
@@ -38066,7 +38069,7 @@
         <v>1</v>
       </c>
       <c r="E1902" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1903">
@@ -38081,7 +38084,7 @@
         <v>1</v>
       </c>
       <c r="E1903" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1904">
@@ -38096,7 +38099,7 @@
         <v>1</v>
       </c>
       <c r="E1904" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1905">
@@ -38111,7 +38114,7 @@
         <v>1</v>
       </c>
       <c r="E1905" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1906">
@@ -38126,7 +38129,7 @@
         <v>1</v>
       </c>
       <c r="E1906" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1907">
@@ -38141,7 +38144,7 @@
         <v>1</v>
       </c>
       <c r="E1907" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1908">
@@ -38436,7 +38439,7 @@
         <v>1</v>
       </c>
       <c r="E1928" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1929">
@@ -38451,7 +38454,7 @@
         <v>1</v>
       </c>
       <c r="E1929" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1930">
@@ -38896,7 +38899,7 @@
         <v>1</v>
       </c>
       <c r="E1960" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1961">
@@ -38911,7 +38914,7 @@
         <v>1</v>
       </c>
       <c r="E1961" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1962">
@@ -38926,7 +38929,7 @@
         <v>1</v>
       </c>
       <c r="E1962" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1963">
@@ -38941,7 +38944,7 @@
         <v>1</v>
       </c>
       <c r="E1963" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1964">
@@ -38956,7 +38959,7 @@
         <v>1</v>
       </c>
       <c r="E1964" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1965">
@@ -38971,7 +38974,7 @@
         <v>1</v>
       </c>
       <c r="E1965" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1966">
@@ -38986,7 +38989,7 @@
         <v>1</v>
       </c>
       <c r="E1966" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1967">
@@ -39001,7 +39004,7 @@
         <v>1</v>
       </c>
       <c r="E1967" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1968">
@@ -39266,7 +39269,7 @@
         <v>1</v>
       </c>
       <c r="E1986" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1987">
@@ -39281,7 +39284,7 @@
         <v>1</v>
       </c>
       <c r="E1987" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1988">
@@ -39560,7 +39563,7 @@
         <v>1</v>
       </c>
       <c r="E2006" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="2007">
@@ -39670,7 +39673,7 @@
         <v>1</v>
       </c>
       <c r="E2014" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="2015">
